--- a/biology/Médecine/Faculté_de_médecine_de_Tunis/Faculté_de_médecine_de_Tunis.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_de_Tunis/Faculté_de_médecine_de_Tunis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Tunis</t>
+          <t>Faculté_de_médecine_de_Tunis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La faculté de médecine de Tunis (arabe : كلية الطب بتونس) ou FMT est un établissement universitaire tunisien relevant depuis 2000 de l'université de Tunis - El Manar. Fondée en octobre 1964, son corps enseignant s'élève en 2010 à 1 064 assistants, maîtres assistants, maîtres de conférences et professeurs[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faculté de médecine de Tunis (arabe : كلية الطب بتونس) ou FMT est un établissement universitaire tunisien relevant depuis 2000 de l'université de Tunis - El Manar. Fondée en octobre 1964, son corps enseignant s'élève en 2010 à 1 064 assistants, maîtres assistants, maîtres de conférences et professeurs.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Tunis</t>
+          <t>Faculté_de_médecine_de_Tunis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première promotion d'étudiants en médecine, au nombre de 59, entame ses études au cours de l'année universitaire 1964-1965. Initialement, les cours sont donnés à la faculté des sciences humaines et sociales de Tunis. À partir de janvier 1965, l'enseignement a lieu dans un pavillon de l'hôpital Charles-Nicolle (pavillon Antoine Cassar devenu pavillon I) puis au pavillon II (rebaptisé en 1980 pavillon Naceur Haddad). Le professeur Amor Chadli est le premier doyen de la FMT.
 Les étudiants devaient avoir validé une année préparatoire aux études médicales (APEM) à la faculté des sciences de Tunis. Il y a alors sept professeurs chargés de l'enseignement : trois détachés par l'Organisation mondiale de la santé, deux missionnaires français et deux maîtres de conférences tunisiens. Ils sont secondés par six assistants : quatre Tunisiens et deux étrangers. Parmi les 59 étudiants de la première promotion, 24 sont arrivés au terme de leurs études médicales en 1971. En 1968, 1969, 1971 et 1974, quatre autres pavillons s'ajoutent aux deux premiers (pavillons III à VI).
-Ces locaux sont abandonnés en 2002, au profit du musée d'histoire de la médecine et du service d'immunologie de l'hôpital Charles-Nicolle (ancien pavillon I), de l'Institut de technologie biomédicale (ancien pavillon II)[2] et du Centre national de pharmacovigilance (ancien pavillon III) ; l'emplacement actuel de la FMT se situe à quelques centaines de mètres des anciens pavillons.
+Ces locaux sont abandonnés en 2002, au profit du musée d'histoire de la médecine et du service d'immunologie de l'hôpital Charles-Nicolle (ancien pavillon I), de l'Institut de technologie biomédicale (ancien pavillon II) et du Centre national de pharmacovigilance (ancien pavillon III) ; l'emplacement actuel de la FMT se situe à quelques centaines de mètres des anciens pavillons.
 			Ancien bâtiment de la faculté.
 			Faculté de médecine de Tunis en 1964-1965.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Tunis</t>
+          <t>Faculté_de_médecine_de_Tunis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La faculté est située au numéro 15 de la rue Djebel Lakhdar dans le quartier de La Rabta[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faculté est située au numéro 15 de la rue Djebel Lakhdar dans le quartier de La Rabta.
 			Cour de la faculté.
 			Département des laboratoires de la faculté.
 			Hall principal de la faculté.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Tunis</t>
+          <t>Faculté_de_médecine_de_Tunis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Déroulement des études</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1964 à 1974, les études médicales sont précédées d'une année préparatoire aux études médicales puis une première année de sciences naturelles.
 Elles durent cinq ans et sont complétées par un stage interné d'un an, jusqu'en 1971, puis de deux ans jusqu'à nos jours. En 1974, l'année préparatoire est supprimée et l'accès à la faculté régi par le système de l'orientation universitaire. En 1988, une réforme des programmes et des examens aboutit à un cursus de cinq ans d'externat suivis de deux ans de stages en médecine générale (internat), le tout couronné par la soutenance d'une thèse de doctorat en médecine. En 2011, une nouvelle réforme est introduite dans le but d'aligner le diplôme tunisien aux standards internationaux en créant un troisième cycle d'études médicales ; cette nouvelle réforme vise aussi à renforcer l'enseignement de la médecine de famille en lui consacrant deux années de stages pour ceux qui n'intègrent pas le cursus de spécialiste (résidanat). Par ailleurs, le concours de résidanat est programmé à la fin des cinq ans d'externat et avant les stages d'internat.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Tunis</t>
+          <t>Faculté_de_médecine_de_Tunis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Doyens</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1964 à nos jours, 11 doyens se sont succédé à la tête de la FMT :
 1964-1971 : Amor Chadli (anatomopathologiste) ;
@@ -626,7 +646,7 @@
 2005-2011 : Abdeljelil Zaouche (chirurgien) ;
 2011-2017 : Ahmed Maherzi (pédiatre) ;
 depuis 2017 : Mohamed Jouini (chirurgie viscérale).
-De 1971 à 2011, plus de 8 200 thèses de médecine ont été soutenues à la FMT[1].
+De 1971 à 2011, plus de 8 200 thèses de médecine ont été soutenues à la FMT.
 </t>
         </is>
       </c>
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Tunis</t>
+          <t>Faculté_de_médecine_de_Tunis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,8 +677,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laboratoires de recherche
-Biochimie clinique (fondé en 1999) ;
+          <t>Laboratoires de recherche</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biochimie clinique (fondé en 1999) ;
 Génétique humaine (1999) ;
 Résistance aux antibiotiques (1999) ;
 Épidémiologie et prévention des maladies cardiovasculaires (2001) ;
@@ -666,17 +691,85 @@
 Rétinopathie diabétique et maladie de Behçet (2001) ;
 Oncologie thoracique (2003) ;
 Recherche étiopathogènique des cancers colo-rectaux (2003) ;
-Toxicologie, ergonomie et environnement professionnel (2003).
-Unités de recherche
-Dérèglement de l'équilibre entre prolifération cellulaire et apoptose (fondée en 2001) ;
+Toxicologie, ergonomie et environnement professionnel (2003).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Tunis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Tunis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Unités de recherche</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dérèglement de l'équilibre entre prolifération cellulaire et apoptose (fondée en 2001) ;
 Épidémiologie génétique et moléculaire (2003) ;
 Motricité et explorations fonctionnelles digestives (2003) ;
 Étude du gène du récepteur aux mélanocortines chez l'enfant obèse (2004) ;
 Cerveau en traumatologie et réanimation obstétricale (2004) ;
 Prise en charge du sida (2004) ;
-Troubles gastro-intestinaux chez l'enfant autiste (2005).
-Hôpitaux associés
-Afin d'assurer une formation complète pour ses étudiants, ces derniers doivent accomplir des stages hospitaliers quotidiens pendant le deuxième cycle de leur cursus. Ces stages spécialisés se font au sein des centres hospitalo-universitaires suivants qui reçoivent des externes et internes[4] :
+Troubles gastro-intestinaux chez l'enfant autiste (2005).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Tunis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Tunis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hôpitaux associés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afin d'assurer une formation complète pour ses étudiants, ces derniers doivent accomplir des stages hospitaliers quotidiens pendant le deuxième cycle de leur cursus. Ces stages spécialisés se font au sein des centres hospitalo-universitaires suivants qui reçoivent des externes et internes :
 Hôpital La Rabta
 Hôpital Charles-Nicolle
 Hôpital Habib-Thameur
@@ -697,34 +790,36 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Tunis</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Tunis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Tunis</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Vie estudiantine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté est animée par plusieurs clubs et associations locaux qui visent non seulement à assurer le divertissement et le renforcement des capacités académiques des étudiants, mais aussi à appuyer leur rôle social à l'échelle locale et nationale.
-Associa-Med, ou Association tunisienne des stagiaires internes et des étudiants en médecine, est fondée en 1989 au sein de la faculté afin de créer une vie associative quasi inexistante jusque-là. En 1999, elle rejoint la Fédération internationale des associations d'étudiants en médecine en tant que membre à part entière[5]. En octobre 2011, dans le cadre d'un projet de régionalisation, l'association établit trois bureaux régionaux pour le reste des facultés de médecine tunisiennes (celles de Sfax, Monastir et Sousse). Elle devient alors l'Association tunisienne des stagiaires internes et des étudiants en médecine[5].
+Associa-Med, ou Association tunisienne des stagiaires internes et des étudiants en médecine, est fondée en 1989 au sein de la faculté afin de créer une vie associative quasi inexistante jusque-là. En 1999, elle rejoint la Fédération internationale des associations d'étudiants en médecine en tant que membre à part entière. En octobre 2011, dans le cadre d'un projet de régionalisation, l'association établit trois bureaux régionaux pour le reste des facultés de médecine tunisiennes (celles de Sfax, Monastir et Sousse). Elle devient alors l'Association tunisienne des stagiaires internes et des étudiants en médecine.
 Enactus FMT, le Club 3S et le Club Mad'ness complètent ce paysage associatif.
 </t>
         </is>
